--- a/biology/Histoire de la zoologie et de la botanique/Laurent_Chabry/Laurent_Chabry.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Laurent_Chabry/Laurent_Chabry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Chabry de son vrai nom Laurent Marie Chabry, né le 19 février 1855[1] à Roanne (Loire) et mort le 23 novembre 1894 à Riorges (Loire), est un médecin et biologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Chabry de son vrai nom Laurent Marie Chabry, né le 19 février 1855 à Roanne (Loire) et mort le 23 novembre 1894 à Riorges (Loire), est un médecin et biologiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un doctorat de médecine en 1881 et en science en 1887. Il devient assistant à l’École pratique des hautes études. Il dirige ensuite le laboratoire de Concarneau et finit sa carrière comme maître de conférences à la Faculté de science de Lyon.
 Il étudie le vol des oiseaux et des insectes. Il démontre notamment le mécanisme de double équilibre chez les coléoptères. Il étudie également la tuberculose.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laurent Chabry et Georges Pouchet, Contribution à l'odontologie des mammifères, 1884
 Laurent Chabry, Embryologie normale et tératologique des Ascidies, Félix Alcan Éditeur, Paris, 1887, 154 p.</t>
